--- a/09. DataDNA Nov Challenge - Resume Analysis/DataDNA Dataset Challenge - November 2022.xlsx
+++ b/09. DataDNA Nov Challenge - Resume Analysis/DataDNA Dataset Challenge - November 2022.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/02e1073a73bda155/Documents/Onyx Data/Data DNA - Dataset Challenge/2022 - November/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Data Analysis\09. DataDNA Nov Challenge - Resume Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F820A139-5ADD-442C-AB9F-B481349462EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="600" windowWidth="23145" windowHeight="15600" activeTab="1" xr2:uid="{ECDE9A64-7798-4581-A2DF-A757DC4EC40C}"/>
+    <workbookView xWindow="3510" yWindow="600" windowWidth="23145" windowHeight="15600"/>
   </bookViews>
   <sheets>
     <sheet name="Experience" sheetId="1" r:id="rId1"/>
     <sheet name="Personal" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
   <si>
     <t>Start Date</t>
   </si>
@@ -154,9 +153,6 @@
   </si>
   <si>
     <t>July 1, 2020</t>
-  </si>
-  <si>
-    <t>Present</t>
   </si>
   <si>
     <t>Citibank</t>
@@ -321,7 +317,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -677,18 +673,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DCE7421-4CFD-454A-AB62-B59BC5EA6664}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="21.28515625" customWidth="1"/>
     <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30.140625" bestFit="1" customWidth="1"/>
@@ -706,19 +702,19 @@
         <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -822,7 +818,7 @@
         <v>26</v>
       </c>
       <c r="H5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -848,7 +844,7 @@
         <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -874,18 +870,19 @@
         <v>37</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>38</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2">
+        <f ca="1">TODAY()</f>
+        <v>44872</v>
+      </c>
+      <c r="C8" t="s">
         <v>39</v>
-      </c>
-      <c r="C8" t="s">
-        <v>40</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
@@ -897,10 +894,10 @@
         <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -911,7 +908,7 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
@@ -923,79 +920,79 @@
         <v>10</v>
       </c>
       <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
         <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" t="s">
         <v>50</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>51</v>
       </c>
-      <c r="C10" t="s">
-        <v>52</v>
-      </c>
       <c r="D10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10" t="s">
         <v>32</v>
       </c>
       <c r="G10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" t="s">
         <v>53</v>
-      </c>
-      <c r="H10" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E12" t="s">
         <v>32</v>
       </c>
       <c r="G12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" t="s">
         <v>61</v>
-      </c>
-      <c r="H12" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1005,278 +1002,281 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52A14ACE-E095-4DA4-BFEE-5BE6835858B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" t="s">
         <v>64</v>
       </c>
-      <c r="C1" t="s">
-        <v>65</v>
-      </c>
       <c r="D1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B8">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B9">
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B12">
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B13">
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B14">
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B15">
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B16">
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B17">
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" t="s">
         <v>89</v>
-      </c>
-      <c r="D20" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
